--- a/oi_pcr_dashboard.xlsx
+++ b/oi_pcr_dashboard.xlsx
@@ -535,7 +535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y48"/>
+  <dimension ref="A1:Y115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
@@ -5063,6 +5063,6237 @@
         </is>
       </c>
       <c r="Y48" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>13:56:47</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>25938.35</v>
+      </c>
+      <c r="C49" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3526841</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3263138.666666667</v>
+      </c>
+      <c r="F49" t="n">
+        <v>474225.3333333333</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1539937</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1613501.666666667</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1761136.666666667</v>
+      </c>
+      <c r="J49" t="n">
+        <v>677315.3333333334</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1116824.666666667</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.9252298775778853</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1.091499750542557</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.648899134130533</v>
+      </c>
+      <c r="O49" t="n">
+        <v>23.54454382773186</v>
+      </c>
+      <c r="P49" t="n">
+        <v>76.45545617226814</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>37.7515318388383</v>
+      </c>
+      <c r="R49" t="n">
+        <v>62.24846816116171</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>13:58:47</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>25937.45</v>
+      </c>
+      <c r="C50" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3527610</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3303782.666666667</v>
+      </c>
+      <c r="F50" t="n">
+        <v>474994.3333333333</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1580581</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1622944.666666667</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1795415.666666667</v>
+      </c>
+      <c r="J50" t="n">
+        <v>686758.3333333334</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1151103.666666667</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.9365498642612609</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.106270412998266</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.676140806445741</v>
+      </c>
+      <c r="O50" t="n">
+        <v>23.10761009975147</v>
+      </c>
+      <c r="P50" t="n">
+        <v>76.89238990024853</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>37.36724157381422</v>
+      </c>
+      <c r="R50" t="n">
+        <v>62.6327584261858</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>14:00:48</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3519405</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3302928.666666667</v>
+      </c>
+      <c r="F51" t="n">
+        <v>466789.3333333333</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1579727</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1627089.666666667</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1797142.666666667</v>
+      </c>
+      <c r="J51" t="n">
+        <v>690903.3333333334</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1152830.666666667</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.9384906444886754</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.104513600868954</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1.668584606626108</v>
+      </c>
+      <c r="O51" t="n">
+        <v>22.80897179906863</v>
+      </c>
+      <c r="P51" t="n">
+        <v>77.19102820093137</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>37.47304835368515</v>
+      </c>
+      <c r="R51" t="n">
+        <v>62.52695164631486</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>14:02:48</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C52" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3519136</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3302627.666666667</v>
+      </c>
+      <c r="F52" t="n">
+        <v>466520.3333333333</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1579426</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1627089.666666667</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1797142.666666667</v>
+      </c>
+      <c r="J52" t="n">
+        <v>690903.3333333334</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1152830.666666667</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.9384768496206645</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.104513600868954</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1.668584606626108</v>
+      </c>
+      <c r="O52" t="n">
+        <v>22.80217842142813</v>
+      </c>
+      <c r="P52" t="n">
+        <v>77.19782157857188</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>37.47304835368515</v>
+      </c>
+      <c r="R52" t="n">
+        <v>62.52695164631486</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>14:04:48</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C53" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3506238</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3258244.666666667</v>
+      </c>
+      <c r="F53" t="n">
+        <v>453622.3333333333</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1535043</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1630193.666666667</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1757509.666666667</v>
+      </c>
+      <c r="J53" t="n">
+        <v>694007.3333333333</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1113197.666666667</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.9292708215091693</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.078098696248973</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1.604014270742576</v>
+      </c>
+      <c r="O53" t="n">
+        <v>22.81039075453621</v>
+      </c>
+      <c r="P53" t="n">
+        <v>77.1896092454638</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>38.40224730085039</v>
+      </c>
+      <c r="R53" t="n">
+        <v>61.59775269914961</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>14:06:50</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>25939.4</v>
+      </c>
+      <c r="C54" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3535997</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3248799.666666667</v>
+      </c>
+      <c r="F54" t="n">
+        <v>483381.3333333333</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1525598</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1667713.666666667</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1755173.666666667</v>
+      </c>
+      <c r="J54" t="n">
+        <v>731527.3333333333</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1110861.666666667</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9187789657815508</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.052443055272678</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1.518551140946203</v>
+      </c>
+      <c r="O54" t="n">
+        <v>24.06104061465374</v>
+      </c>
+      <c r="P54" t="n">
+        <v>75.93895938534627</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>39.70536804840526</v>
+      </c>
+      <c r="R54" t="n">
+        <v>60.29463195159474</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>14:08:50</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>25939.4</v>
+      </c>
+      <c r="C55" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3535997</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3248865.666666667</v>
+      </c>
+      <c r="F55" t="n">
+        <v>483381.3333333333</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1525664</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1667713.666666667</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1755173.666666667</v>
+      </c>
+      <c r="J55" t="n">
+        <v>731527.3333333333</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1110861.666666667</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0.9187976309557577</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1.052443055272678</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1.518551140946203</v>
+      </c>
+      <c r="O55" t="n">
+        <v>24.06025017520759</v>
+      </c>
+      <c r="P55" t="n">
+        <v>75.93974982479241</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>39.70536804840526</v>
+      </c>
+      <c r="R55" t="n">
+        <v>60.29463195159474</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>14:10:51</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3516007.333333333</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3224891.666666667</v>
+      </c>
+      <c r="F56" t="n">
+        <v>463391.6666666667</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1501690</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1652112</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1740711.666666667</v>
+      </c>
+      <c r="J56" t="n">
+        <v>715925.6666666667</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1096399.666666667</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.917202770339311</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.053628123678459</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.531443441288365</v>
+      </c>
+      <c r="O56" t="n">
+        <v>23.5812930590671</v>
+      </c>
+      <c r="P56" t="n">
+        <v>76.41870694093291</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>39.50315395911257</v>
+      </c>
+      <c r="R56" t="n">
+        <v>60.49684604088743</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>14:11:01</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C57" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3516007.333333333</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3224891.666666667</v>
+      </c>
+      <c r="F57" t="n">
+        <v>463391.6666666667</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1501690</v>
+      </c>
+      <c r="H57" t="n">
+        <v>1652112</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1740711.666666667</v>
+      </c>
+      <c r="J57" t="n">
+        <v>715925.6666666667</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1096399.666666667</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.917202770339311</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1.053628123678459</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1.531443441288365</v>
+      </c>
+      <c r="O57" t="n">
+        <v>23.5812930590671</v>
+      </c>
+      <c r="P57" t="n">
+        <v>76.41870694093291</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>39.50315395911257</v>
+      </c>
+      <c r="R57" t="n">
+        <v>60.49684604088743</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>14:11:11</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C58" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3516007.333333333</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3224891.666666667</v>
+      </c>
+      <c r="F58" t="n">
+        <v>463391.6666666667</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1501690</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1652112</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1740711.666666667</v>
+      </c>
+      <c r="J58" t="n">
+        <v>715925.6666666667</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1096399.666666667</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.917202770339311</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.053628123678459</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1.531443441288365</v>
+      </c>
+      <c r="O58" t="n">
+        <v>23.5812930590671</v>
+      </c>
+      <c r="P58" t="n">
+        <v>76.41870694093291</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>39.50315395911257</v>
+      </c>
+      <c r="R58" t="n">
+        <v>60.49684604088743</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>14:13:11</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>25939.4</v>
+      </c>
+      <c r="C59" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3504181</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3245163.666666667</v>
+      </c>
+      <c r="F59" t="n">
+        <v>451565.3333333333</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1521962</v>
+      </c>
+      <c r="H59" t="n">
+        <v>1650149.666666667</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1766109.666666667</v>
+      </c>
+      <c r="J59" t="n">
+        <v>713963.3333333333</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1121797.666666667</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.9260833463416035</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.070272413673992</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1.57122587994715</v>
+      </c>
+      <c r="O59" t="n">
+        <v>22.88112891604237</v>
+      </c>
+      <c r="P59" t="n">
+        <v>77.11887108395763</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>38.89195452639714</v>
+      </c>
+      <c r="R59" t="n">
+        <v>61.10804547360286</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>14:15:12</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>25940.25</v>
+      </c>
+      <c r="C60" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3504193</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3245208.666666667</v>
+      </c>
+      <c r="F60" t="n">
+        <v>451577.3333333333</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1522007</v>
+      </c>
+      <c r="H60" t="n">
+        <v>1650149.666666667</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1766109.666666667</v>
+      </c>
+      <c r="J60" t="n">
+        <v>713963.3333333333</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1121797.666666667</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.926093016756402</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.070272413673992</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1.57122587994715</v>
+      </c>
+      <c r="O60" t="n">
+        <v>22.88107610636687</v>
+      </c>
+      <c r="P60" t="n">
+        <v>77.11892389363312</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>38.89195452639714</v>
+      </c>
+      <c r="R60" t="n">
+        <v>61.10804547360286</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>14:17:12</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>25942.65</v>
+      </c>
+      <c r="C61" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3494111.333333333</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3207855.666666667</v>
+      </c>
+      <c r="F61" t="n">
+        <v>441495.6666666667</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1484654</v>
+      </c>
+      <c r="H61" t="n">
+        <v>1645581</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1728662.666666667</v>
+      </c>
+      <c r="J61" t="n">
+        <v>709394.6666666667</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1084350.666666667</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.9180748295179298</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.050487740601445</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1.528557681102762</v>
+      </c>
+      <c r="O61" t="n">
+        <v>22.92115064094189</v>
+      </c>
+      <c r="P61" t="n">
+        <v>77.07884935905811</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>39.54823761678544</v>
+      </c>
+      <c r="R61" t="n">
+        <v>60.45176238321456</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>14:19:12</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>25954.15</v>
+      </c>
+      <c r="C62" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3467670.333333333</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3216818.666666667</v>
+      </c>
+      <c r="F62" t="n">
+        <v>415054.6666666667</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1493617</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1623695</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1733245.666666667</v>
+      </c>
+      <c r="J62" t="n">
+        <v>687508.6666666667</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1088933.666666667</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.9276598861618044</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.067469978454492</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1.583883548619508</v>
+      </c>
+      <c r="O62" t="n">
+        <v>21.74573416241487</v>
+      </c>
+      <c r="P62" t="n">
+        <v>78.25426583758512</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>38.7014345338539</v>
+      </c>
+      <c r="R62" t="n">
+        <v>61.2985654661461</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>14:21:12</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>25940.55</v>
+      </c>
+      <c r="C63" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D63" t="n">
+        <v>3467664.333333333</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3216895.666666667</v>
+      </c>
+      <c r="F63" t="n">
+        <v>415048.6666666667</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1493694</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1623695</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1733245.666666667</v>
+      </c>
+      <c r="J63" t="n">
+        <v>687508.6666666667</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1088933.666666667</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.927683696413138</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.067469978454492</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1.583883548619508</v>
+      </c>
+      <c r="O63" t="n">
+        <v>21.74461093760151</v>
+      </c>
+      <c r="P63" t="n">
+        <v>78.25538906239849</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>38.7014345338539</v>
+      </c>
+      <c r="R63" t="n">
+        <v>61.2985654661461</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>14:23:14</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>25941.8</v>
+      </c>
+      <c r="C64" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3487378.666666667</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3217722.333333333</v>
+      </c>
+      <c r="F64" t="n">
+        <v>434762.9999999999</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1494520.666666667</v>
+      </c>
+      <c r="H64" t="n">
+        <v>1648897.333333333</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1738082.333333333</v>
+      </c>
+      <c r="J64" t="n">
+        <v>712711</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1093770.333333333</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.9226764974188827</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.054087661006588</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1.534661782031333</v>
+      </c>
+      <c r="O64" t="n">
+        <v>22.53494431698397</v>
+      </c>
+      <c r="P64" t="n">
+        <v>77.46505568301603</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>39.45299554714469</v>
+      </c>
+      <c r="R64" t="n">
+        <v>60.54700445285531</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>14:25:14</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>25938.3</v>
+      </c>
+      <c r="C65" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D65" t="n">
+        <v>3490773.333333333</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3203905.666666667</v>
+      </c>
+      <c r="F65" t="n">
+        <v>438157.6666666667</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1480704</v>
+      </c>
+      <c r="H65" t="n">
+        <v>1656372</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1727939.666666667</v>
+      </c>
+      <c r="J65" t="n">
+        <v>720185.6666666667</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1083627.666666667</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.917821170476074</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.043207483987092</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.504650421164542</v>
+      </c>
+      <c r="O65" t="n">
+        <v>22.83424981998876</v>
+      </c>
+      <c r="P65" t="n">
+        <v>77.16575018001123</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>39.92573141345002</v>
+      </c>
+      <c r="R65" t="n">
+        <v>60.07426858654998</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>14:27:14</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>25936.95</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3488301.333333333</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3220610.666666667</v>
+      </c>
+      <c r="F66" t="n">
+        <v>435685.6666666667</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1497409</v>
+      </c>
+      <c r="H66" t="n">
+        <v>1656562</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1742925.666666667</v>
+      </c>
+      <c r="J66" t="n">
+        <v>720375.6666666667</v>
+      </c>
+      <c r="K66" t="n">
+        <v>1098613.666666667</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.9232604522697961</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.052134279711032</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1.525056602411612</v>
+      </c>
+      <c r="O66" t="n">
+        <v>22.53824782507634</v>
+      </c>
+      <c r="P66" t="n">
+        <v>77.46175217492366</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>39.60307262201281</v>
+      </c>
+      <c r="R66" t="n">
+        <v>60.39692737798719</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>14:29:14</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>25916.95</v>
+      </c>
+      <c r="C67" t="n">
+        <v>25900</v>
+      </c>
+      <c r="D67" t="n">
+        <v>3462857.666666667</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3115145</v>
+      </c>
+      <c r="F67" t="n">
+        <v>410241.9999999999</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1391943.333333333</v>
+      </c>
+      <c r="H67" t="n">
+        <v>1402640.333333333</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1712957</v>
+      </c>
+      <c r="J67" t="n">
+        <v>750992</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1047747</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.8995879414814719</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.221237518480028</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1.395150680699661</v>
+      </c>
+      <c r="O67" t="n">
+        <v>22.76358554318128</v>
+      </c>
+      <c r="P67" t="n">
+        <v>77.23641445681871</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>41.75102669147664</v>
+      </c>
+      <c r="R67" t="n">
+        <v>58.24897330852336</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>14:31:15</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>25916.9</v>
+      </c>
+      <c r="C68" t="n">
+        <v>25900</v>
+      </c>
+      <c r="D68" t="n">
+        <v>3466707</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3120424.333333333</v>
+      </c>
+      <c r="F68" t="n">
+        <v>414091.3333333333</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1397222.666666667</v>
+      </c>
+      <c r="H68" t="n">
+        <v>1410490.666666667</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1724609</v>
+      </c>
+      <c r="J68" t="n">
+        <v>758842.3333333334</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1059399</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.900111931390029</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.222701461808089</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1.396072614117909</v>
+      </c>
+      <c r="O68" t="n">
+        <v>22.86137761499847</v>
+      </c>
+      <c r="P68" t="n">
+        <v>77.13862238500154</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>41.7349622089037</v>
+      </c>
+      <c r="R68" t="n">
+        <v>58.2650377910963</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>14:33:15</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>25934.85</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D69" t="n">
+        <v>3466589</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3119986.333333333</v>
+      </c>
+      <c r="F69" t="n">
+        <v>413973.3333333333</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1396784.666666667</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1637603.666666667</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1656537</v>
+      </c>
+      <c r="J69" t="n">
+        <v>701417.3333333334</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1012225</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.9000162215172705</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.011561609025871</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1.443113752535343</v>
+      </c>
+      <c r="O69" t="n">
+        <v>22.86188067833103</v>
+      </c>
+      <c r="P69" t="n">
+        <v>77.13811932166898</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>40.93137288275052</v>
+      </c>
+      <c r="R69" t="n">
+        <v>59.06862711724947</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>14:35:15</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>25934.75</v>
+      </c>
+      <c r="C70" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D70" t="n">
+        <v>3505503.666666667</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3086263</v>
+      </c>
+      <c r="F70" t="n">
+        <v>452888.0000000001</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1363061.333333333</v>
+      </c>
+      <c r="H70" t="n">
+        <v>1685748.666666667</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1629684.666666667</v>
+      </c>
+      <c r="J70" t="n">
+        <v>749562.3333333334</v>
+      </c>
+      <c r="K70" t="n">
+        <v>985372.6666666666</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0.8804050126510587</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.9667423732205237</v>
+      </c>
+      <c r="N70" t="n">
+        <v>1.314597362816612</v>
+      </c>
+      <c r="O70" t="n">
+        <v>24.93946233448511</v>
+      </c>
+      <c r="P70" t="n">
+        <v>75.06053766551489</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>43.20405855742915</v>
+      </c>
+      <c r="R70" t="n">
+        <v>56.79594144257085</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>14:37:16</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>25928.45</v>
+      </c>
+      <c r="C71" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3514660.666666667</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3095550.666666667</v>
+      </c>
+      <c r="F71" t="n">
+        <v>462044.9999999999</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1372349</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1713859.666666667</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1645816.333333333</v>
+      </c>
+      <c r="J71" t="n">
+        <v>777673.3333333333</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1001504.333333333</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8807537797390018</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.9602981885525829</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1.287821364583244</v>
+      </c>
+      <c r="O71" t="n">
+        <v>25.18788221069192</v>
+      </c>
+      <c r="P71" t="n">
+        <v>74.81211778930808</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>43.70970633811538</v>
+      </c>
+      <c r="R71" t="n">
+        <v>56.29029366188463</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>14:39:16</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>25928.45</v>
+      </c>
+      <c r="C72" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D72" t="n">
+        <v>3514656.666666667</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3095555.666666667</v>
+      </c>
+      <c r="F72" t="n">
+        <v>462040.9999999999</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1372354</v>
+      </c>
+      <c r="H72" t="n">
+        <v>1713859.666666667</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1645816.333333333</v>
+      </c>
+      <c r="J72" t="n">
+        <v>777673.3333333333</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1001504.333333333</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8807562047312349</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.9602981885525829</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1.287821364583244</v>
+      </c>
+      <c r="O72" t="n">
+        <v>25.18765042425432</v>
+      </c>
+      <c r="P72" t="n">
+        <v>74.81234957574567</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>43.70970633811538</v>
+      </c>
+      <c r="R72" t="n">
+        <v>56.29029366188463</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>14:41:17</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>25934.65</v>
+      </c>
+      <c r="C73" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D73" t="n">
+        <v>3479039.666666667</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3098782.666666667</v>
+      </c>
+      <c r="F73" t="n">
+        <v>426424.0000000001</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1375581</v>
+      </c>
+      <c r="H73" t="n">
+        <v>1683774.666666667</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1648819.333333333</v>
+      </c>
+      <c r="J73" t="n">
+        <v>747588.3333333334</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1004507.333333333</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.8907005850944114</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.9792398982920121</v>
+      </c>
+      <c r="N73" t="n">
+        <v>1.343663736503824</v>
+      </c>
+      <c r="O73" t="n">
+        <v>23.66386330781547</v>
+      </c>
+      <c r="P73" t="n">
+        <v>76.33613669218454</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>42.6682371034915</v>
+      </c>
+      <c r="R73" t="n">
+        <v>57.33176289650851</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>LONG BUILDUP</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>14:43:17</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>25932.95</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D74" t="n">
+        <v>3494900</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3089727.666666667</v>
+      </c>
+      <c r="F74" t="n">
+        <v>442284.3333333333</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1366526</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1710820.666666667</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1637789.666666667</v>
+      </c>
+      <c r="J74" t="n">
+        <v>774634.3333333334</v>
+      </c>
+      <c r="K74" t="n">
+        <v>993477.6666666666</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.8840675460432821</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.9573122996331975</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1.282511791585105</v>
+      </c>
+      <c r="O74" t="n">
+        <v>24.4516699834569</v>
+      </c>
+      <c r="P74" t="n">
+        <v>75.5483300165431</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>43.81138374341294</v>
+      </c>
+      <c r="R74" t="n">
+        <v>56.18861625658706</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 25900]</t>
+        </is>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>14:45:17</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>25945.4</v>
+      </c>
+      <c r="C75" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3413076.666666667</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3049410</v>
+      </c>
+      <c r="F75" t="n">
+        <v>360461</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1326208.333333333</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1645589</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1604521.666666667</v>
+      </c>
+      <c r="J75" t="n">
+        <v>709402.6666666666</v>
+      </c>
+      <c r="K75" t="n">
+        <v>960209.6666666666</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0.893449019115695</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.9750439913408918</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1.353546739792351</v>
+      </c>
+      <c r="O75" t="n">
+        <v>21.37117174518301</v>
+      </c>
+      <c r="P75" t="n">
+        <v>78.62882825481699</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>42.48906482682506</v>
+      </c>
+      <c r="R75" t="n">
+        <v>57.51093517317493</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>14:47:18</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>25936.3</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3412599.666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3049485</v>
+      </c>
+      <c r="F76" t="n">
+        <v>359984</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1326283.333333333</v>
+      </c>
+      <c r="H76" t="n">
+        <v>1645589</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1604521.666666667</v>
+      </c>
+      <c r="J76" t="n">
+        <v>709402.6666666666</v>
+      </c>
+      <c r="K76" t="n">
+        <v>960209.6666666666</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.8935958793486762</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.9750439913408918</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1.353546739792351</v>
+      </c>
+      <c r="O76" t="n">
+        <v>21.34797922512089</v>
+      </c>
+      <c r="P76" t="n">
+        <v>78.65202077487912</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>42.48906482682506</v>
+      </c>
+      <c r="R76" t="n">
+        <v>57.51093517317493</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>14:49:18</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>25941.4</v>
+      </c>
+      <c r="C77" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3362850.666666667</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3031601.333333333</v>
+      </c>
+      <c r="F77" t="n">
+        <v>310235</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1308399.666666667</v>
+      </c>
+      <c r="H77" t="n">
+        <v>1631407</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1595211.666666667</v>
+      </c>
+      <c r="J77" t="n">
+        <v>695220.6666666666</v>
+      </c>
+      <c r="K77" t="n">
+        <v>950899.6666666666</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0.9014974596949094</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.9778134252621613</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1.367766685110051</v>
+      </c>
+      <c r="O77" t="n">
+        <v>19.16646210468741</v>
+      </c>
+      <c r="P77" t="n">
+        <v>80.83353789531259</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>42.23389096098887</v>
+      </c>
+      <c r="R77" t="n">
+        <v>57.76610903901112</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>14:51:19</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>25951.1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D78" t="n">
+        <v>3363218.666666667</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3031793.333333333</v>
+      </c>
+      <c r="F78" t="n">
+        <v>310603</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1308591.666666667</v>
+      </c>
+      <c r="H78" t="n">
+        <v>1631407</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1595211.666666667</v>
+      </c>
+      <c r="J78" t="n">
+        <v>695220.6666666666</v>
+      </c>
+      <c r="K78" t="n">
+        <v>950899.6666666666</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0.9014559069209096</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.9778134252621613</v>
+      </c>
+      <c r="N78" t="n">
+        <v>1.367766685110051</v>
+      </c>
+      <c r="O78" t="n">
+        <v>19.18256071330934</v>
+      </c>
+      <c r="P78" t="n">
+        <v>80.81743928669067</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>42.23389096098887</v>
+      </c>
+      <c r="R78" t="n">
+        <v>57.76610903901112</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>14:53:19</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>25951.85</v>
+      </c>
+      <c r="C79" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D79" t="n">
+        <v>3314629.666666667</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3003039</v>
+      </c>
+      <c r="F79" t="n">
+        <v>262014</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1279837.333333333</v>
+      </c>
+      <c r="H79" t="n">
+        <v>1594367</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1578077.666666667</v>
+      </c>
+      <c r="J79" t="n">
+        <v>658180.6666666667</v>
+      </c>
+      <c r="K79" t="n">
+        <v>933765.6666666666</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0.9059953303983982</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.9897831971350805</v>
+      </c>
+      <c r="N79" t="n">
+        <v>1.418707224257574</v>
+      </c>
+      <c r="O79" t="n">
+        <v>16.99346716090656</v>
+      </c>
+      <c r="P79" t="n">
+        <v>83.00653283909344</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>41.34440042890893</v>
+      </c>
+      <c r="R79" t="n">
+        <v>58.65559957109106</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>14:55:19</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>25944.6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3317536.666666667</v>
+      </c>
+      <c r="E80" t="n">
+        <v>2991883.666666667</v>
+      </c>
+      <c r="F80" t="n">
+        <v>264921</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1268682</v>
+      </c>
+      <c r="H80" t="n">
+        <v>1612016</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1581668.333333333</v>
+      </c>
+      <c r="J80" t="n">
+        <v>675829.6666666667</v>
+      </c>
+      <c r="K80" t="n">
+        <v>937356.3333333334</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.9018389146163668</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.9811740909105947</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1.386971273333665</v>
+      </c>
+      <c r="O80" t="n">
+        <v>17.27441847727215</v>
+      </c>
+      <c r="P80" t="n">
+        <v>82.72558152272785</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>41.89409446069249</v>
+      </c>
+      <c r="R80" t="n">
+        <v>58.10590553930752</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>SHORT BUILDUP</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 26000]</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>14:57:20</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>25945.55</v>
+      </c>
+      <c r="C81" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D81" t="n">
+        <v>3268525.666666667</v>
+      </c>
+      <c r="E81" t="n">
+        <v>2979782</v>
+      </c>
+      <c r="F81" t="n">
+        <v>215910</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1256580.333333333</v>
+      </c>
+      <c r="H81" t="n">
+        <v>1571975</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1581223.666666667</v>
+      </c>
+      <c r="J81" t="n">
+        <v>635788.6666666667</v>
+      </c>
+      <c r="K81" t="n">
+        <v>936911.6666666666</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.9116593546713261</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.005883469308778</v>
+      </c>
+      <c r="N81" t="n">
+        <v>1.473621213757611</v>
+      </c>
+      <c r="O81" t="n">
+        <v>14.66291459525145</v>
+      </c>
+      <c r="P81" t="n">
+        <v>85.33708540474855</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>40.42656144919322</v>
+      </c>
+      <c r="R81" t="n">
+        <v>59.57343855080676</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>14:59:20</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C82" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3264057.666666667</v>
+      </c>
+      <c r="E82" t="n">
+        <v>2973276</v>
+      </c>
+      <c r="F82" t="n">
+        <v>211442</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1250074.333333333</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1570555</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1575511.666666667</v>
+      </c>
+      <c r="J82" t="n">
+        <v>634368.6666666667</v>
+      </c>
+      <c r="K82" t="n">
+        <v>931199.6666666666</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.9109140534996674</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1.003155996871594</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.467915607433322</v>
+      </c>
+      <c r="O82" t="n">
+        <v>14.46730325057378</v>
+      </c>
+      <c r="P82" t="n">
+        <v>85.53269674942622</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>40.52002414458647</v>
+      </c>
+      <c r="R82" t="n">
+        <v>59.47997585541351</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 26000]</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>15:01:20</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C83" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D83" t="n">
+        <v>3271897.333333333</v>
+      </c>
+      <c r="E83" t="n">
+        <v>2935328.333333333</v>
+      </c>
+      <c r="F83" t="n">
+        <v>219281.6666666666</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1212126.666666667</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1582321.666666667</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1543389</v>
+      </c>
+      <c r="J83" t="n">
+        <v>646135.3333333333</v>
+      </c>
+      <c r="K83" t="n">
+        <v>899077</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.8971333860108893</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.9753952262129594</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.391468557154693</v>
+      </c>
+      <c r="O83" t="n">
+        <v>15.31929509981429</v>
+      </c>
+      <c r="P83" t="n">
+        <v>84.68070490018573</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>41.81531038776332</v>
+      </c>
+      <c r="R83" t="n">
+        <v>58.18468961223668</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>15:03:21</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C84" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3261363.333333333</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2921305.333333333</v>
+      </c>
+      <c r="F84" t="n">
+        <v>208747.6666666666</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1198103.666666667</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1581442.666666667</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1535550</v>
+      </c>
+      <c r="J84" t="n">
+        <v>645256.3333333333</v>
+      </c>
+      <c r="K84" t="n">
+        <v>891238</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.8957313352595897</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.9709805055636964</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.381215423947796</v>
+      </c>
+      <c r="O84" t="n">
+        <v>14.83793359829065</v>
+      </c>
+      <c r="P84" t="n">
+        <v>85.16206640170937</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>41.99536043413111</v>
+      </c>
+      <c r="R84" t="n">
+        <v>58.00463956586889</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>15:05:21</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C85" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D85" t="n">
+        <v>3241823.333333333</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2817460.333333333</v>
+      </c>
+      <c r="F85" t="n">
+        <v>189207.6666666667</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1094258.666666667</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1579541.666666667</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1470412</v>
+      </c>
+      <c r="J85" t="n">
+        <v>643355.3333333334</v>
+      </c>
+      <c r="K85" t="n">
+        <v>826100</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.8690974317950699</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.9309105489461605</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.28404935375267</v>
+      </c>
+      <c r="O85" t="n">
+        <v>14.74192674577363</v>
+      </c>
+      <c r="P85" t="n">
+        <v>85.25807325422637</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>43.78189106802838</v>
+      </c>
+      <c r="R85" t="n">
+        <v>56.21810893197161</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 25900]</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>15:07:21</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3225955.333333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2731494.333333333</v>
+      </c>
+      <c r="F86" t="n">
+        <v>173339.6666666667</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1008292.666666667</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1563825.666666667</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1394332</v>
+      </c>
+      <c r="J86" t="n">
+        <v>627639.3333333334</v>
+      </c>
+      <c r="K86" t="n">
+        <v>750020</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.8467241641907419</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.8916160092013666</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.194985655243616</v>
+      </c>
+      <c r="O86" t="n">
+        <v>14.66950943849709</v>
+      </c>
+      <c r="P86" t="n">
+        <v>85.33049056150293</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>45.55838429335941</v>
+      </c>
+      <c r="R86" t="n">
+        <v>54.44161570664058</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>15:09:21</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C87" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D87" t="n">
+        <v>3225293.333333333</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2730661.666666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>172677.6666666667</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1007460</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1563825.666666667</v>
+      </c>
+      <c r="I87" t="n">
+        <v>1394332</v>
+      </c>
+      <c r="J87" t="n">
+        <v>627639.3333333334</v>
+      </c>
+      <c r="K87" t="n">
+        <v>750020</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.8466397888357439</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8916160092013666</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.194985655243616</v>
+      </c>
+      <c r="O87" t="n">
+        <v>14.63199349906353</v>
+      </c>
+      <c r="P87" t="n">
+        <v>85.36800650093646</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>45.55838429335941</v>
+      </c>
+      <c r="R87" t="n">
+        <v>54.44161570664058</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>15:11:21</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>25935.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3119667</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2635760</v>
+      </c>
+      <c r="F88" t="n">
+        <v>67051.33333333337</v>
+      </c>
+      <c r="G88" t="n">
+        <v>912558.3333333335</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1480310.333333333</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1321789.333333333</v>
+      </c>
+      <c r="J88" t="n">
+        <v>544124</v>
+      </c>
+      <c r="K88" t="n">
+        <v>677477.3333333334</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.8448850470258522</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.8929136705794348</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.245078940339579</v>
+      </c>
+      <c r="O88" t="n">
+        <v>6.844699028082276</v>
+      </c>
+      <c r="P88" t="n">
+        <v>93.15530097191771</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>44.54186363036058</v>
+      </c>
+      <c r="R88" t="n">
+        <v>55.45813636963941</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>15:13:22</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C89" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3015129.333333333</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2551489</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-37486.33333333337</v>
+      </c>
+      <c r="G89" t="n">
+        <v>828287.3333333335</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1419151.666666667</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1268947.333333333</v>
+      </c>
+      <c r="J89" t="n">
+        <v>482965.3333333334</v>
+      </c>
+      <c r="K89" t="n">
+        <v>624635.3333333334</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.8462287079338109</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.8941590692091871</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.293333683024869</v>
+      </c>
+      <c r="O89" t="n">
+        <v>4.329807520903272</v>
+      </c>
+      <c r="P89" t="n">
+        <v>95.67019247909673</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>43.60464451387714</v>
+      </c>
+      <c r="R89" t="n">
+        <v>56.39535548612285</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>15:15:22</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>25936.05</v>
+      </c>
+      <c r="C90" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D90" t="n">
+        <v>3015074.333333333</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2551060</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-37541.33333333337</v>
+      </c>
+      <c r="G90" t="n">
+        <v>827858.3333333335</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1419151.666666667</v>
+      </c>
+      <c r="I90" t="n">
+        <v>1268947.333333333</v>
+      </c>
+      <c r="J90" t="n">
+        <v>482965.3333333334</v>
+      </c>
+      <c r="K90" t="n">
+        <v>624635.3333333334</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.8461018595119212</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.8941590692091871</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.293333683024869</v>
+      </c>
+      <c r="O90" t="n">
+        <v>4.338034179968489</v>
+      </c>
+      <c r="P90" t="n">
+        <v>95.66196582003151</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>43.60464451387714</v>
+      </c>
+      <c r="R90" t="n">
+        <v>56.39535548612285</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>15:17:22</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>25943.8</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2962944.333333333</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2469879</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-89671.33333333337</v>
+      </c>
+      <c r="G91" t="n">
+        <v>746677.3333333335</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1382189.666666667</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1203180.333333333</v>
+      </c>
+      <c r="J91" t="n">
+        <v>446003.3333333334</v>
+      </c>
+      <c r="K91" t="n">
+        <v>558868.3333333334</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.8335894036933755</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.8704885894820512</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.253058646796362</v>
+      </c>
+      <c r="O91" t="n">
+        <v>10.72176436781151</v>
+      </c>
+      <c r="P91" t="n">
+        <v>89.27823563218848</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>44.38410875020525</v>
+      </c>
+      <c r="R91" t="n">
+        <v>55.61589124979475</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>15:19:22</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>25942.6</v>
+      </c>
+      <c r="C92" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2941515.333333333</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2422116</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-111100.3333333334</v>
+      </c>
+      <c r="G92" t="n">
+        <v>698914.3333333335</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1370959.666666667</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1156504.333333333</v>
+      </c>
+      <c r="J92" t="n">
+        <v>434773.3333333334</v>
+      </c>
+      <c r="K92" t="n">
+        <v>512192.3333333334</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.8234245705104827</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.843572835476074</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.178067498773307</v>
+      </c>
+      <c r="O92" t="n">
+        <v>13.71584218228148</v>
+      </c>
+      <c r="P92" t="n">
+        <v>86.28415781771852</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>45.91225940257602</v>
+      </c>
+      <c r="R92" t="n">
+        <v>54.08774059742398</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>15:21:23</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>25941.65</v>
+      </c>
+      <c r="C93" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2825931</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2335709.333333333</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-226684.6666666667</v>
+      </c>
+      <c r="G93" t="n">
+        <v>612507.6666666667</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1283472.333333333</v>
+      </c>
+      <c r="I93" t="n">
+        <v>1117419</v>
+      </c>
+      <c r="J93" t="n">
+        <v>347286</v>
+      </c>
+      <c r="K93" t="n">
+        <v>473107</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.8265273756978966</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.8706218053784824</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.362297933115645</v>
+      </c>
+      <c r="O93" t="n">
+        <v>27.01224232664979</v>
+      </c>
+      <c r="P93" t="n">
+        <v>72.9877576733502</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>42.33166299566184</v>
+      </c>
+      <c r="R93" t="n">
+        <v>57.66833700433816</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>LONG UNWINDING</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>15:23:23</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>25943.4</v>
+      </c>
+      <c r="C94" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2734649.666666667</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2243534.666666667</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-317966</v>
+      </c>
+      <c r="G94" t="n">
+        <v>520333</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1227381</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1050853.333333333</v>
+      </c>
+      <c r="J94" t="n">
+        <v>291194.6666666667</v>
+      </c>
+      <c r="K94" t="n">
+        <v>406541.3333333333</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.8204102682744613</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.8561753305072618</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.396115313467279</v>
+      </c>
+      <c r="O94" t="n">
+        <v>37.92990329226207</v>
+      </c>
+      <c r="P94" t="n">
+        <v>62.07009670773793</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>41.73421848187089</v>
+      </c>
+      <c r="R94" t="n">
+        <v>58.2657815181291</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>15:25:23</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>25948.55</v>
+      </c>
+      <c r="C95" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2623758.666666667</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2077498</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-428857</v>
+      </c>
+      <c r="G95" t="n">
+        <v>354296.3333333333</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1160128</v>
+      </c>
+      <c r="I95" t="n">
+        <v>944388.6666666666</v>
+      </c>
+      <c r="J95" t="n">
+        <v>223941.6666666667</v>
+      </c>
+      <c r="K95" t="n">
+        <v>300076.6666666667</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.7918022440071978</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.8140383359997058</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.33997692851561</v>
+      </c>
+      <c r="O95" t="n">
+        <v>54.76028534216373</v>
+      </c>
+      <c r="P95" t="n">
+        <v>45.23971465783627</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>42.73546408999685</v>
+      </c>
+      <c r="R95" t="n">
+        <v>57.26453591000315</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>15:27:23</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>25948.55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2623520.666666667</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2075806.333333334</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-429095</v>
+      </c>
+      <c r="G96" t="n">
+        <v>352604.6666666666</v>
+      </c>
+      <c r="H96" t="n">
+        <v>1160128</v>
+      </c>
+      <c r="I96" t="n">
+        <v>944388.6666666666</v>
+      </c>
+      <c r="J96" t="n">
+        <v>223941.6666666667</v>
+      </c>
+      <c r="K96" t="n">
+        <v>300076.6666666667</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.791229266728348</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8140383359997058</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.33997692851561</v>
+      </c>
+      <c r="O96" t="n">
+        <v>54.89256530321322</v>
+      </c>
+      <c r="P96" t="n">
+        <v>45.10743469678679</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>42.73546408999685</v>
+      </c>
+      <c r="R96" t="n">
+        <v>57.26453591000315</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>[25950, 26000, 26100]</t>
+        </is>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25850]</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>15:29:27</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>25964.55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2421584</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1946458.666666667</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-631031.6666666667</v>
+      </c>
+      <c r="G97" t="n">
+        <v>223257</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I97" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J97" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K97" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.8037956423013476</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O97" t="n">
+        <v>73.86632777523289</v>
+      </c>
+      <c r="P97" t="n">
+        <v>26.13367222476711</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R97" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>SHORT COVERING</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>15:31:27</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>25969.85</v>
+      </c>
+      <c r="C98" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D98" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G98" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I98" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J98" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K98" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O98" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P98" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R98" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>BUYERS</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>15:33:28</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C99" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E99" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G99" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H99" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I99" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J99" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K99" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N99" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O99" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P99" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R99" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>WRITERS</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>15:35:28</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C100" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G100" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I100" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J100" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K100" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N100" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O100" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P100" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R100" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>15:37:32</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C101" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G101" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H101" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I101" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J101" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K101" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N101" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O101" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P101" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R101" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>15:39:32</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C102" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G102" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H102" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I102" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J102" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K102" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N102" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O102" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P102" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R102" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X102" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>15:41:33</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C103" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D103" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E103" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G103" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I103" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J103" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K103" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O103" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P103" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R103" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X103" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>15:43:33</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C104" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D104" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G104" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H104" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I104" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J104" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K104" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O104" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P104" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R104" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X104" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>15:45:34</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C105" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G105" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I105" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J105" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K105" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O105" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P105" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R105" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X105" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>15:47:34</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D106" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E106" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G106" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I106" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J106" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K106" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O106" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P106" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R106" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W106" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X106" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y106" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>15:49:35</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C107" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G107" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I107" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J107" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K107" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N107" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O107" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P107" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R107" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>15:51:36</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C108" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D108" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G108" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J108" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K108" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O108" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P108" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R108" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>15:53:36</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C109" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D109" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G109" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I109" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J109" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K109" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N109" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O109" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P109" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R109" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W109" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X109" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y109" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>15:55:37</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C110" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D110" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G110" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I110" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J110" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K110" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O110" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P110" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R110" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W110" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X110" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y110" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>15:57:37</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D111" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G111" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I111" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J111" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K111" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O111" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P111" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R111" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W111" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X111" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y111" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>15:59:37</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C112" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D112" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G112" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I112" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J112" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K112" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O112" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P112" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R112" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W112" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X112" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y112" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>16:01:39</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C113" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G113" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I113" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J113" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K113" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O113" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P113" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R113" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W113" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X113" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y113" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>16:03:39</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C114" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D114" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G114" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I114" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J114" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K114" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O114" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P114" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R114" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W114" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X114" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y114" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>16:05:40</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>25938.85</v>
+      </c>
+      <c r="C115" t="n">
+        <v>25950</v>
+      </c>
+      <c r="D115" t="n">
+        <v>2421737</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1946358.666666667</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-630878.6666666667</v>
+      </c>
+      <c r="G115" t="n">
+        <v>223157</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1033050.333333333</v>
+      </c>
+      <c r="I115" t="n">
+        <v>853276.3333333334</v>
+      </c>
+      <c r="J115" t="n">
+        <v>96864</v>
+      </c>
+      <c r="K115" t="n">
+        <v>208964.3333333333</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.8037035675908104</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0.8259775015802716</v>
+      </c>
+      <c r="N115" t="n">
+        <v>2.157296140292919</v>
+      </c>
+      <c r="O115" t="n">
+        <v>73.87029503451652</v>
+      </c>
+      <c r="P115" t="n">
+        <v>26.12970496548348</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>31.67267039788116</v>
+      </c>
+      <c r="R115" t="n">
+        <v>68.32732960211884</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="T115" t="inlineStr">
+        <is>
+          <t>SIDEWAYS</t>
+        </is>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>NEUTRAL</t>
+        </is>
+      </c>
+      <c r="W115" t="inlineStr">
+        <is>
+          <t>[26000, 25950, 26100]</t>
+        </is>
+      </c>
+      <c r="X115" t="inlineStr">
+        <is>
+          <t>[25900, 25950, 25500]</t>
+        </is>
+      </c>
+      <c r="Y115" t="inlineStr">
         <is>
           <t>BEARISH</t>
         </is>
